--- a/任务列表.xlsx
+++ b/任务列表.xlsx
@@ -6,10 +6,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administered\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desktop\PCL\.minecraft\versions\1.21.4-Fabric 0.16.12\saves\cs\datapacks\sctz_ywsj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BCF701-05D8-40C8-B41B-D69B7545F601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E0BC6C-9A98-4255-B2CE-4858D9FC549E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2808,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9E5309-3E2A-4C3A-892F-C05F0971C4F2}">
   <dimension ref="A1:J243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="F128" workbookViewId="0">
+      <selection activeCell="J134" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2980,14 +2980,14 @@
         <v>175</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
         <v>160</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e4 set value {id:4,text:"食用一个苹果",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e4 set value {id:4,text:"食用一个苹果",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3013,14 +3013,14 @@
         <v>175</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
         <v>160</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e5 set value {id:5,text:"繁殖一只绵羊",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e5 set value {id:5,text:"繁殖一只绵羊",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3079,14 +3079,14 @@
         <v>175</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
         <v>160</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e7 set value {id:7,text:"召唤一只铁傀儡",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e7 set value {id:7,text:"召唤一只铁傀儡",difficulty:3,args:{}}</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3112,14 +3112,14 @@
         <v>175</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
         <v>160</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e8 set value {id:8,text:"召唤一只雪傀儡",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e8 set value {id:8,text:"召唤一只雪傀儡",difficulty:3,args:{}}</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3145,14 +3145,14 @@
         <v>175</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
         <v>160</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e9 set value {id:9,text:"驯服一只马",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e9 set value {id:9,text:"驯服一只马",difficulty:3,args:{}}</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3541,14 +3541,14 @@
         <v>175</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="s">
         <v>160</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e21 set value {id:21,text:"使用钻石锄头锄地",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e21 set value {id:21,text:"使用钻石锄头锄地",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3739,14 +3739,14 @@
         <v>175</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
         <v>160</v>
       </c>
       <c r="J28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e27 set value {id:27,text:"食用一个甜浆果",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e27 set value {id:27,text:"食用一个甜浆果",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3772,14 +3772,14 @@
         <v>175</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
         <v>160</v>
       </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e28 set value {id:28,text:"食用一个胡萝卜",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e28 set value {id:28,text:"食用一个胡萝卜",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3805,14 +3805,14 @@
         <v>175</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="s">
         <v>160</v>
       </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e29 set value {id:29,text:"食用一个烤马铃薯",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e29 set value {id:29,text:"食用一个烤马铃薯",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4036,14 +4036,14 @@
         <v>175</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
         <v>160</v>
       </c>
       <c r="J37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e36 set value {id:36,text:"放置一个草方块",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e36 set value {id:36,text:"放置一个草方块",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -4069,14 +4069,14 @@
         <v>175</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38" t="s">
         <v>160</v>
       </c>
       <c r="J38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e37 set value {id:37,text:"从主世界穿越到地狱下届",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e37 set value {id:37,text:"从主世界穿越到地狱下届",difficulty:4,args:{}}</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -4102,14 +4102,14 @@
         <v>175</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39" t="s">
         <v>160</v>
       </c>
       <c r="J39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e38 set value {id:38,text:"从主世界穿越到地末地",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e38 set value {id:38,text:"从主世界穿越到地末地",difficulty:4,args:{}}</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -4135,14 +4135,14 @@
         <v>175</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I40" t="s">
         <v>160</v>
       </c>
       <c r="J40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e39 set value {id:39,text:"从地狱下届穿越到主世界",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e39 set value {id:39,text:"从地狱下届穿越到主世界",difficulty:4,args:{}}</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -4366,14 +4366,14 @@
         <v>175</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47" t="s">
         <v>160</v>
       </c>
       <c r="J47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e46 set value {id:46,text:"放置一个红石比较器",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e46 set value {id:46,text:"放置一个红石比较器",difficulty:3,args:{}}</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -4729,14 +4729,14 @@
         <v>175</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58" t="s">
         <v>160</v>
       </c>
       <c r="J58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>data modify storage ywsj:eventlist args.e57 set value {id:57,text:"放置一个玄武岩",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e57 set value {id:57,text:"放置一个玄武岩",difficulty:3,args:{}}</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -5092,14 +5092,14 @@
         <v>175</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69" t="s">
         <v>160</v>
       </c>
       <c r="J69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e68 set value {id:68,text:"放置一个黑石",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e68 set value {id:68,text:"放置一个黑石",difficulty:3,args:{}}</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -5158,14 +5158,14 @@
         <v>175</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="s">
         <v>160</v>
       </c>
       <c r="J71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e70 set value {id:70,text:"种下任意一束高丛花",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e70 set value {id:70,text:"种下任意一束高丛花",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -5224,14 +5224,14 @@
         <v>175</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="s">
         <v>160</v>
       </c>
       <c r="J73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e72 set value {id:72,text:"放置一个酿造台",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e72 set value {id:72,text:"放置一个酿造台",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -5389,14 +5389,14 @@
         <v>175</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="s">
         <v>160</v>
       </c>
       <c r="J78" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e77 set value {id:77,text:"对自己造成魔法伤害",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e77 set value {id:77,text:"对自己造成魔法伤害",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -5752,14 +5752,14 @@
         <v>175</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="s">
         <v>160</v>
       </c>
       <c r="J89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e88 set value {id:88,text:"站在苔藓块上",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e88 set value {id:88,text:"站在苔藓块上",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -5818,14 +5818,14 @@
         <v>175</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91" t="s">
         <v>160</v>
       </c>
       <c r="J91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e90 set value {id:90,text:"站在雪块上",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e90 set value {id:90,text:"站在雪块上",difficulty:3,args:{}}</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -6016,14 +6016,14 @@
         <v>175</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="s">
         <v>160</v>
       </c>
       <c r="J97" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e96 set value {id:96,text:"击败一只村民",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e96 set value {id:96,text:"击败一只村民",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -6049,14 +6049,14 @@
         <v>175</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98" t="s">
         <v>160</v>
       </c>
       <c r="J98" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e97 set value {id:97,text:"击败一只鳕鱼",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e97 set value {id:97,text:"击败一只鳕鱼",difficulty:3,args:{}}</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -6082,14 +6082,14 @@
         <v>175</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99" t="s">
         <v>160</v>
       </c>
       <c r="J99" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e98 set value {id:98,text:"击败一只鲑鱼",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e98 set value {id:98,text:"击败一只鲑鱼",difficulty:3,args:{}}</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -6115,14 +6115,14 @@
         <v>175</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="s">
         <v>160</v>
       </c>
       <c r="J100" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e99 set value {id:99,text:"击败一只马",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e99 set value {id:99,text:"击败一只马",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -6148,14 +6148,14 @@
         <v>175</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="s">
         <v>160</v>
       </c>
       <c r="J101" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e100 set value {id:100,text:"击败一只驴",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e100 set value {id:100,text:"击败一只驴",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -6181,14 +6181,14 @@
         <v>175</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="s">
         <v>160</v>
       </c>
       <c r="J102" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e101 set value {id:101,text:"击败一只骡",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e101 set value {id:101,text:"击败一只骡",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -6214,14 +6214,14 @@
         <v>175</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="s">
         <v>160</v>
       </c>
       <c r="J103" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e102 set value {id:102,text:"击败一只鱿鱼",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e102 set value {id:102,text:"击败一只鱿鱼",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -6247,14 +6247,14 @@
         <v>175</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="s">
         <v>160</v>
       </c>
       <c r="J104" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e103 set value {id:103,text:"击败一只河豚",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e103 set value {id:103,text:"击败一只河豚",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -6280,14 +6280,14 @@
         <v>175</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="s">
         <v>160</v>
       </c>
       <c r="J105" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e104 set value {id:104,text:"击败一只铁傀儡",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e104 set value {id:104,text:"击败一只铁傀儡",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -6313,14 +6313,14 @@
         <v>175</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="s">
         <v>160</v>
       </c>
       <c r="J106" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e105 set value {id:105,text:"击败一只狼",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e105 set value {id:105,text:"击败一只狼",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -6346,14 +6346,14 @@
         <v>175</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="s">
         <v>160</v>
       </c>
       <c r="J107" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e106 set value {id:106,text:"击败一只溺尸",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e106 set value {id:106,text:"击败一只溺尸",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -6379,14 +6379,14 @@
         <v>175</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="s">
         <v>160</v>
       </c>
       <c r="J108" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e107 set value {id:107,text:"击败一只尸壳",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e107 set value {id:107,text:"击败一只尸壳",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -6445,14 +6445,14 @@
         <v>175</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="s">
         <v>160</v>
       </c>
       <c r="J110" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e109 set value {id:109,text:"击败一只女巫",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e109 set value {id:109,text:"击败一只女巫",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -6478,14 +6478,14 @@
         <v>175</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="s">
         <v>160</v>
       </c>
       <c r="J111" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e110 set value {id:110,text:"击败一只史莱姆",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e110 set value {id:110,text:"击败一只史莱姆",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -6511,14 +6511,14 @@
         <v>175</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I112" t="s">
         <v>160</v>
       </c>
       <c r="J112" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e111 set value {id:111,text:"击败一只僵尸村民",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e111 set value {id:111,text:"击败一只僵尸村民",difficulty:3,args:{}}</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -6775,14 +6775,14 @@
         <v>175</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="s">
         <v>160</v>
       </c>
       <c r="J120" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e119 set value {id:119,text:"敲5次钟",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e119 set value {id:119,text:"敲5次钟",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -6907,14 +6907,14 @@
         <v>175</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124" t="s">
         <v>160</v>
       </c>
       <c r="J124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e123 set value {id:123,text:"骑马移动5距离",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e123 set value {id:123,text:"骑马移动5距离",difficulty:3,args:{}}</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -6973,14 +6973,14 @@
         <v>175</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126" t="s">
         <v>160</v>
       </c>
       <c r="J126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>data modify storage ywsj:eventlist args.e125 set value {id:125,text:"飞行10距离",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e125 set value {id:125,text:"飞行10距离",difficulty:3,args:{}}</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -7204,14 +7204,14 @@
         <v>175</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="s">
         <v>160</v>
       </c>
       <c r="J133" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>data modify storage ywsj:eventlist args.e132 set value {id:132,text:"与村民交互1次",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e132 set value {id:132,text:"与村民交互1次",difficulty:2,args:{}}</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -7534,14 +7534,14 @@
         <v>175</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I143" t="s">
         <v>160</v>
       </c>
       <c r="J143" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>data modify storage ywsj:eventlist args.e142 set value {id:142,text:"与末影箱交互1次",difficulty:1,args:{}}</v>
+        <v>data modify storage ywsj:eventlist args.e142 set value {id:142,text:"与末影箱交互1次",difficulty:3,args:{}}</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
